--- a/datavac.xlsx
+++ b/datavac.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hecto\OneDrive\Documentos\hv hu 2020\vacunacion_covid\Vacunacion-covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC86C12-8301-46DC-A09C-71CDE35CCD55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78E2072-6100-404F-A4E4-4DE1D603D762}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CCDA32A6-C74E-4397-BEB5-AD47423ECCF9}"/>
   </bookViews>
@@ -878,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7D1AE5-B95A-4A4D-9D98-593F8194CF0B}">
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F90"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1455,13 +1455,13 @@
         <v>39</v>
       </c>
       <c r="B29" s="2">
-        <v>44252</v>
+        <v>44254</v>
       </c>
       <c r="C29" s="6">
         <v>242000</v>
       </c>
       <c r="D29" s="6">
-        <v>81333</v>
+        <v>114042</v>
       </c>
       <c r="E29" s="6">
         <v>0</v>
